--- a/data/trans_camb/P3A_R1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R1-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.2165517193262065</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1.649410701092064</v>
+        <v>1.649410701092065</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.427197174745396</v>
@@ -664,7 +664,7 @@
         <v>2.62684424747978</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.620979050283106</v>
+        <v>1.620979050283105</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.393049716898834</v>
+        <v>-1.610677511175055</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.628992934883017</v>
+        <v>-2.903901260586323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.3562702546556</v>
+        <v>-2.406580258565975</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.9189599703593112</v>
+        <v>-0.7093890072766347</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.762327923827268</v>
+        <v>1.475450594101488</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.142736752630666</v>
+        <v>-1.79189911517118</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.2321976873669288</v>
+        <v>-0.5592259834483561</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2890483325149243</v>
+        <v>0.2250022820368696</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.9958789764789817</v>
+        <v>-1.193964176095223</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.775970803009715</v>
+        <v>4.709706545350519</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.249136207029081</v>
+        <v>3.093268246994838</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.60244448638787</v>
+        <v>6.574416581184036</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.827721807947712</v>
+        <v>5.561961979983679</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.028731521258489</v>
+        <v>8.788733930832676</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.894117944806546</v>
+        <v>6.130672465523204</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.21651697193835</v>
+        <v>4.029200223736449</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.916981293724574</v>
+        <v>4.928200556371127</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.903917133441972</v>
+        <v>4.831468057391134</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.04601347495594128</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3504710940319771</v>
+        <v>0.3504710940319774</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.4343426863623241</v>
@@ -769,7 +769,7 @@
         <v>0.51159231250658</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3156945531333554</v>
+        <v>0.3156945531333551</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2414212301213377</v>
+        <v>-0.2670285752531473</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4428014385722596</v>
+        <v>-0.464460331972651</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4669679111426829</v>
+        <v>-0.4712933431625201</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1202845950958313</v>
+        <v>-0.1289039299003406</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1998897445767447</v>
+        <v>0.1765834279398453</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3372225565306425</v>
+        <v>-0.2973236479602194</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03608460471463936</v>
+        <v>-0.09346948758157572</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.03409309766615599</v>
+        <v>0.01394949103090243</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1915956080169387</v>
+        <v>-0.2186091698012433</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.434454759752653</v>
+        <v>1.443455576309774</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9766754796062509</v>
+        <v>0.9458721051482322</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.018922509024979</v>
+        <v>1.79435619200364</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.416434642554563</v>
+        <v>1.228376428605868</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.057433557313327</v>
+        <v>1.995514940577577</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.3062425238392</v>
+        <v>1.399659723482119</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.007734730947909</v>
+        <v>0.9531291712642949</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.205362867077859</v>
+        <v>1.132527879277</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.106129869762267</v>
+        <v>1.078908019765021</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>8.912377857973469</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.151995502174324</v>
+        <v>-1.15199550217433</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.766621548368919</v>
@@ -869,7 +869,7 @@
         <v>2.335296615197124</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.5621671731946443</v>
+        <v>0.5621671731946498</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.242880304111327</v>
@@ -878,7 +878,7 @@
         <v>5.575685706894079</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.5085427483941252</v>
+        <v>-0.5085427483941196</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.597531198630333</v>
+        <v>-4.599395062981555</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.249354449804279</v>
+        <v>3.841008362940721</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.501950046734959</v>
+        <v>-6.647912845879318</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.82069879234684</v>
+        <v>-2.228797771039058</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.912807951831412</v>
+        <v>-2.342515300645095</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.335219333979669</v>
+        <v>-4.299272283039079</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.19446312170646</v>
+        <v>-2.341815624364526</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.898373573303355</v>
+        <v>1.728937877131596</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.318231344545742</v>
+        <v>-4.222797744837381</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.298467129815754</v>
+        <v>5.592964287278503</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.14880769295191</v>
+        <v>14.92680971216444</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.868795045770712</v>
+        <v>5.100008700698932</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.0619261407009</v>
+        <v>8.121327429174983</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.138869859442579</v>
+        <v>7.260976763909187</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.268306169316551</v>
+        <v>6.27644841897022</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.617490787448311</v>
+        <v>4.630879503184053</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.037445463149758</v>
+        <v>9.242163038813567</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.820914185451284</v>
+        <v>3.543669167536738</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.3146256383946209</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.04066785835107572</v>
+        <v>-0.04066785835107592</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1153654526623757</v>
@@ -974,7 +974,7 @@
         <v>0.09737961857195979</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02344182942034983</v>
+        <v>0.02344182942035006</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.04719611316084309</v>
@@ -983,7 +983,7 @@
         <v>0.2117264974763793</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.01931098354438599</v>
+        <v>-0.01931098354438578</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1779769593901561</v>
+        <v>-0.1508716466380531</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1109756128773908</v>
+        <v>0.1313570561113541</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2493995915183313</v>
+        <v>-0.2266248454921195</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.07385314984596132</v>
+        <v>-0.0841580111922177</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1110307822209325</v>
+        <v>-0.0908890518907295</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1708044728885132</v>
+        <v>-0.1658038752870721</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07645483163867101</v>
+        <v>-0.08451258687301166</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.06581567672377668</v>
+        <v>0.06184059617955491</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1560417067643897</v>
+        <v>-0.1517581351292008</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1636349794449793</v>
+        <v>0.2198814396736845</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5501757693069868</v>
+        <v>0.5910515749463053</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2328106806784008</v>
+        <v>0.1954522610841556</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3744836716814965</v>
+        <v>0.3793196847685511</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3261927194902671</v>
+        <v>0.3427366124121158</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2952710274178884</v>
+        <v>0.2920725803272924</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1908129648805713</v>
+        <v>0.184946133823967</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3646770093723553</v>
+        <v>0.3780501393844963</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1547036877030289</v>
+        <v>0.1464020951990586</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>18.11180863747576</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>20.84012158083987</v>
+        <v>20.84012158083988</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>10.17049364431444</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.304461798448436</v>
+        <v>8.622948040514169</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.57436211961178</v>
+        <v>12.00918309912407</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.624650014136932</v>
+        <v>7.532676114793446</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.165905282281164</v>
+        <v>2.019791281249078</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>13.5788030006609</v>
+        <v>13.7020080322224</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>16.79694594317666</v>
+        <v>16.81041147564456</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>6.546385291337743</v>
+        <v>6.955124813205018</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>13.99184622511735</v>
+        <v>14.46676305295742</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>14.33156514818045</v>
+        <v>13.59017109681243</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.93830533343928</v>
+        <v>19.1271364848</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.53912857788763</v>
+        <v>22.35267208458141</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.76708966713876</v>
+        <v>18.87619247624981</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.17162560637774</v>
+        <v>10.48014599836149</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>22.59373176710545</v>
+        <v>22.90896225131026</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>24.98087065240747</v>
+        <v>25.45590257025156</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>13.66230723519439</v>
+        <v>13.74951999563257</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>21.13933120220557</v>
+        <v>21.52420693029135</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>21.5284965493134</v>
+        <v>20.65394086141256</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.8052355551568674</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.785959082868592</v>
+        <v>0.7859590828685916</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2486022643196505</v>
+        <v>0.2690715126970742</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.3523931977832859</v>
+        <v>0.3631031951108021</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2346125423024576</v>
+        <v>0.2300173573048342</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.118339867390902</v>
+        <v>0.1147379228731602</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7750172530588708</v>
+        <v>0.7854632395109098</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.960702512004851</v>
+        <v>0.9605252794354344</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.277269218133278</v>
+        <v>0.2899753999255757</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.581190692704077</v>
+        <v>0.6023773357916513</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.6030610974641591</v>
+        <v>0.5585518506858955</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6952313965517968</v>
+        <v>0.7066874167509871</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8428505870038743</v>
+        <v>0.8069141179367372</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6982275380723011</v>
+        <v>0.6891842745849067</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7668769824351327</v>
+        <v>0.7957241559802999</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.754239405470167</v>
+        <v>1.749473957977889</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.912200462334793</v>
+        <v>1.948219400381123</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6783426368687965</v>
+        <v>0.6657039668222181</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.043548887062733</v>
+        <v>1.051834604766575</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.072487006091636</v>
+        <v>1.003899781467486</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>14.70564834680936</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>17.44998960964732</v>
+        <v>17.44998960964733</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.175291441929753</v>
+        <v>6.725596252155973</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>12.08919015468392</v>
+        <v>11.46038522596299</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.996479308606094</v>
+        <v>8.022710456717114</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.527330506349919</v>
+        <v>2.122653523037619</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>8.411649027519143</v>
+        <v>8.225705859876706</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.58547901303027</v>
+        <v>17.84034133672955</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>5.511940356606683</v>
+        <v>5.814199719471405</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>11.14925570352305</v>
+        <v>11.08985673289309</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>14.7657913502438</v>
+        <v>14.32153188838276</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>17.85053252902667</v>
+        <v>17.71320191753743</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>22.45933532692629</v>
+        <v>22.00472170727333</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18.11991769700872</v>
+        <v>18.21009858288675</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.235650272192617</v>
+        <v>9.294805617819</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>16.3036985291776</v>
+        <v>15.99246905059698</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>25.47788926383996</v>
+        <v>25.40176237365944</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.23520266450763</v>
+        <v>12.43861775788517</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>18.16267949133884</v>
+        <v>18.12270127138086</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>20.78602989063501</v>
+        <v>20.69042918136829</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.8334985401586746</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6392207239341273</v>
+        <v>0.6392207239341271</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.7317169869448928</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2946461329533702</v>
+        <v>0.279887899141783</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.493647272457732</v>
+        <v>0.4916248574210082</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3403997970606481</v>
+        <v>0.3229240155527935</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1646047355852279</v>
+        <v>0.2246522599561508</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9043799277171913</v>
+        <v>0.872270376249306</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.930867424756237</v>
+        <v>1.872020784159654</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.343062769946706</v>
+        <v>0.363621616983647</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.7041206680526703</v>
+        <v>0.6910844759432969</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.9165589875765483</v>
+        <v>0.9051752633409544</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9795800769292743</v>
+        <v>0.9647257652160899</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.225249576602213</v>
+        <v>1.211024375773737</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.004017469983686</v>
+        <v>1.016881486293423</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.641827824223466</v>
+        <v>1.598005952636436</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.914251202729708</v>
+        <v>2.813249842825222</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.539530855368441</v>
+        <v>4.543289744516447</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9798130074147517</v>
+        <v>1.037537912717132</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.442981286633958</v>
+        <v>1.47273286990255</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.670365236037809</v>
+        <v>1.714460910121195</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>12.57373777691975</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>15.58815564896698</v>
+        <v>15.58815564896699</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.949642790970194</v>
+        <v>7.429616950569243</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>14.60276809441292</v>
+        <v>14.5521713965797</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12.81256547762404</v>
+        <v>12.83592342576442</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.776937169542064</v>
+        <v>-0.9938861191705133</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.118013970191069</v>
+        <v>1.391171062156918</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>9.182969637164456</v>
+        <v>9.034179184055061</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.311829433605158</v>
+        <v>4.406488626862841</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>8.933115755958365</v>
+        <v>9.054605200706337</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>12.33057955337048</v>
+        <v>12.46810584712966</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>18.55757933891517</v>
+        <v>19.33533244676477</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>25.68432659095228</v>
+        <v>26.24558164436722</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22.67913240316283</v>
+        <v>22.92216872385285</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.226579556697176</v>
+        <v>7.405068571934807</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.373229025632607</v>
+        <v>9.273974740237218</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>16.46717601577742</v>
+        <v>16.33456140241968</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.62584393307102</v>
+        <v>11.76734060802562</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>15.72731702341788</v>
+        <v>16.42591234336381</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>18.51431528515002</v>
+        <v>18.68577913843222</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.4394751224583546</v>
+        <v>0.4384582170803155</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.8888337181077882</v>
+        <v>0.9064857791479358</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.7517868058471768</v>
+        <v>0.7729216299662417</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1764614148684169</v>
+        <v>-0.1045817549708994</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08359028233875113</v>
+        <v>0.1361664312279104</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8892029630708892</v>
+        <v>0.8517152030679402</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3296094969475706</v>
+        <v>0.3624781081172998</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.7206111701288013</v>
+        <v>0.7229065825200847</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.9590180537390394</v>
+        <v>0.9804977813914865</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.65849221025909</v>
+        <v>1.727520117877192</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.3432652556649</v>
+        <v>2.402741117982531</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.120629601430559</v>
+        <v>2.156410736125789</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.227459879139047</v>
+        <v>1.23882815211032</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.421530968656939</v>
+        <v>1.551965056547673</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.816527987241504</v>
+        <v>2.87741514943394</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.30125066496542</v>
+        <v>1.299189358560515</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.733178410122717</v>
+        <v>1.781440906593713</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.043915064005841</v>
+        <v>2.095075191236947</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-1.416792307102587</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.216434367552234</v>
+        <v>1.216434367552231</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-2.370720535782187</v>
@@ -1734,7 +1734,7 @@
         <v>1.169587184223309</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>2.460601285389783</v>
+        <v>2.460601285389785</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-8.186309383289109</v>
+        <v>-8.103445118452255</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.999372739460414</v>
+        <v>-3.096993494218558</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-2.998938798191039</v>
+        <v>-3.739945790097913</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-7.266873507980061</v>
+        <v>-7.661104032089513</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.739866489263368</v>
+        <v>-6.282549196931948</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-3.130608731251173</v>
+        <v>-2.649810053428153</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-6.689679149926764</v>
+        <v>-6.468112464406713</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.055105376666373</v>
+        <v>-2.792183221688361</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-0.9276021005926817</v>
+        <v>-1.677703737595952</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.102305641572617</v>
+        <v>5.00924641089326</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>10.91247376352104</v>
+        <v>11.6153680700866</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>9.606370662180483</v>
+        <v>9.296242207038889</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1.314730072228264</v>
+        <v>1.18611217927561</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.972182973267211</v>
+        <v>2.837440737694121</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.853807757209201</v>
+        <v>5.252112824345039</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.789005916337815</v>
+        <v>1.691233822465273</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.398497345075757</v>
+        <v>5.273543137104116</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>6.302415335484929</v>
+        <v>6.188795253126363</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.1217449631195714</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.104528205349934</v>
+        <v>0.1045282053499337</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.1367286189091425</v>
@@ -1839,7 +1839,7 @@
         <v>0.0674546147380141</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.1419123892333449</v>
+        <v>0.1419123892333451</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3010058084952725</v>
+        <v>-0.2962876826978522</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1099744733474947</v>
+        <v>-0.1164374279359024</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1086084000476588</v>
+        <v>-0.1377244811276136</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.5551155497571775</v>
+        <v>-0.5416277724793446</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4116633171828907</v>
+        <v>-0.4463486795517032</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2169682104335814</v>
+        <v>-0.1807106325738361</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.342768017537496</v>
+        <v>-0.3372543451855152</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1556842684664931</v>
+        <v>-0.1550521809626029</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.04826626667072114</v>
+        <v>-0.08729129851477417</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2462797131202395</v>
+        <v>0.2470185833483674</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.5289214870902934</v>
+        <v>0.5614305203981216</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.4679138027995017</v>
+        <v>0.471114459998366</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1463626529478763</v>
+        <v>0.1472269245488134</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3603372470049509</v>
+        <v>0.3120587566004203</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5293964729864955</v>
+        <v>0.5992988893592435</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1153306178061745</v>
+        <v>0.1074579233945037</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.3526534106183798</v>
+        <v>0.3446756853106729</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.4298816510275139</v>
+        <v>0.4148472215526482</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>0.7320397199033823</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.092980726838166</v>
+        <v>2.092980726838165</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.264377135857432</v>
+        <v>-9.251172360128319</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.52106782193585</v>
+        <v>-4.836322534307397</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-4.073285590709709</v>
+        <v>-3.314347176071925</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.542547999945951</v>
+        <v>-2.288942954903473</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.489104165050612</v>
+        <v>-3.643311736401886</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.088814122929965</v>
+        <v>-1.992894047255064</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-3.913878217556954</v>
+        <v>-3.772648466327098</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.473098988094969</v>
+        <v>-2.485758157017141</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-1.212875790836319</v>
+        <v>-1.043789300906272</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.721553077680416</v>
+        <v>4.163388332260453</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>9.614515676657417</v>
+        <v>8.441559860595769</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9.60032193649632</v>
+        <v>9.214392584608797</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.042913083520707</v>
+        <v>4.199122147289694</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.250668671974318</v>
+        <v>3.068381132504645</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.511873469077552</v>
+        <v>3.731701960331209</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.529022127975645</v>
+        <v>2.750719772945093</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.200967935426238</v>
+        <v>4.09368424647232</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>5.037993899038453</v>
+        <v>5.085456804089375</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.06500181063083246</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.238409164975202</v>
+        <v>0.2384091649752018</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.06679120587444964</v>
@@ -2053,7 +2053,7 @@
         <v>0.08223575900685336</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.2351209285214319</v>
+        <v>0.2351209285214317</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4911345075813432</v>
+        <v>-0.4649565778766709</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2348503653581445</v>
+        <v>-0.2456245347902197</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1966447743671046</v>
+        <v>-0.1724428368107169</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.4310261119991135</v>
+        <v>-0.4040582306375127</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.5800906632126447</v>
+        <v>-0.631968621536743</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3227129042266884</v>
+        <v>-0.3210548210499</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.3522905010539167</v>
+        <v>-0.3623652820863401</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2428077481159771</v>
+        <v>-0.2359421543397665</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.116040802253816</v>
+        <v>-0.101030650762601</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3299531534633873</v>
+        <v>0.3492317962297105</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.8063013253898602</v>
+        <v>0.6867648193247364</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.7863335851823895</v>
+        <v>0.734100806133959</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.454991355849832</v>
+        <v>1.689232858395177</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.188911835200171</v>
+        <v>1.238098783075649</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.359115789060138</v>
+        <v>1.488679096541164</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3660064692633325</v>
+        <v>0.3801251099788618</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5930848674598196</v>
+        <v>0.6072738567194953</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.7057304489382896</v>
+        <v>0.7185572910140033</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>6.57486587431351</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>9.344343920352676</v>
+        <v>9.34434392035268</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>4.652877614354795</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>4.345606584845633</v>
+        <v>4.430603803607778</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>9.351319506768331</v>
+        <v>9.290697623189107</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>5.896987829425353</v>
+        <v>5.912927251355129</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1.155754844246011</v>
+        <v>1.312614750888549</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>4.747836298838815</v>
+        <v>4.912017641301444</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>7.682361502169869</v>
+        <v>7.779522122229042</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>3.35684853086908</v>
+        <v>3.329906638056579</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>7.624156837729341</v>
+        <v>7.590639426495269</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>7.292887239352212</v>
+        <v>7.285107175674232</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>8.551949746235564</v>
+        <v>8.619073109210678</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>13.53921866357433</v>
+        <v>13.64845781987172</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>10.51272103067653</v>
+        <v>10.36426162084101</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.583492877501705</v>
+        <v>4.558673144304339</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>8.172832423782115</v>
+        <v>8.237859685074946</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>10.91057025640942</v>
+        <v>11.12180339714087</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>6.099752680109209</v>
+        <v>6.004122733911855</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>10.32695755233871</v>
+        <v>10.31383063391504</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>10.04329759594777</v>
+        <v>9.971740162218314</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.5483240944692744</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.7792902572437382</v>
+        <v>0.7792902572437385</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.2839697351687807</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1947027215637182</v>
+        <v>0.2025182346329068</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.4231068733792345</v>
+        <v>0.4187921392521454</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.2666195347563035</v>
+        <v>0.2660808811985657</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.09329070164759476</v>
+        <v>0.1019475082722904</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.3708929846707137</v>
+        <v>0.3924385135429804</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5898934590335166</v>
+        <v>0.6082073734926763</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.197651654993579</v>
+        <v>0.1980609055210149</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.4448013154735833</v>
+        <v>0.445677933572215</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.4284155451188887</v>
+        <v>0.431134646889489</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4288655144001426</v>
+        <v>0.4327124379204356</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.6786303181086646</v>
+        <v>0.6842512766869315</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.524176789114589</v>
+        <v>0.5210330019095789</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.4107302972989295</v>
+        <v>0.401955767072918</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.7240550225587368</v>
+        <v>0.7499122061951768</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.9715346802961543</v>
+        <v>1.000686774725839</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.3888584340946031</v>
+        <v>0.3798606619172834</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.654686044863345</v>
+        <v>0.6586052536996119</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.6431731133514569</v>
+        <v>0.6377558949511388</v>
       </c>
     </row>
     <row r="52">
